--- a/Combined_datasets/14-OM-datasets/P_labels_oversample_50%_total_dataset /13_OM_50/new_label/University_OM_test.xlsx
+++ b/Combined_datasets/14-OM-datasets/P_labels_oversample_50%_total_dataset /13_OM_50/new_label/University_OM_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/P_labels_oversample_70%_total_dataset/13_OM_70/new labeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/P_labels_oversample_50%_total_dataset /13_OM_50/new_label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3897CD84-22A2-E14E-A0E7-29A248167AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA128815-B5B3-9A4A-9742-DEA3581D62F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="5540" windowWidth="28040" windowHeight="16320" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
+    <workbookView xWindow="760" yWindow="2880" windowWidth="28040" windowHeight="16320" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC25649-7E87-1549-8AEF-1D6A900F91D9}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
